--- a/Assets/Resources/Data/RawData/Levels.xlsx
+++ b/Assets/Resources/Data/RawData/Levels.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766FA4B6-66ED-4559-829E-5787F8ED2A31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="4560" yWindow="3435" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,82 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>关卡ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡介绍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Introduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地形1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地形2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地形3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡介绍111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TerrainType1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TerrainType2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TerrainType3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +127,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +404,84 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="26.75" customWidth="1"/>
+    <col min="4" max="4" width="13.625" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>40001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Resources/Data/RawData/Levels.xlsx
+++ b/Assets/Resources/Data/RawData/Levels.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bishe\BiShe\Assets\Resources\Data\RawData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26E8F90-46E9-4C12-B6CD-559E6C34A036}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,14 +24,134 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+  <si>
+    <t>关卡ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工业产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结合产业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置关卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Front</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后置关卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>After</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡目标1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aim1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡目标2</t>
+  </si>
+  <si>
+    <t>关卡目标3</t>
+  </si>
+  <si>
+    <t>Aim2</t>
+  </si>
+  <si>
+    <t>Aim3</t>
+  </si>
+  <si>
+    <t>金钱大于20000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木材资源大于500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城镇人口达到200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱大于30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工业资源大于300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城镇人口达到300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildingID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技奖励</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TechID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -53,7 +179,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +456,169 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="15.875" customWidth="1"/>
+    <col min="8" max="8" width="11.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>30001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>30002</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>30002</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>30001</v>
+      </c>
+      <c r="D4">
+        <v>30003</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>30003</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>30002</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Resources/Data/RawData/Levels.xlsx
+++ b/Assets/Resources/Data/RawData/Levels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bishe\BiShe\Assets\Resources\Data\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26E8F90-46E9-4C12-B6CD-559E6C34A036}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AFD584-A23D-41CB-A3C3-1BD95C033A11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>关卡ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,6 +132,34 @@
   </si>
   <si>
     <t>TechID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺寸长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尺寸宽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Length</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Width</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Introduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,10 +485,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -471,7 +499,7 @@
     <col min="8" max="8" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -499,8 +527,17 @@
       <c r="I1" t="s">
         <v>26</v>
       </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -528,16 +565,25 @@
       <c r="I2" t="s">
         <v>27</v>
       </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>30001</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
+      <c r="C3">
+        <v>0</v>
       </c>
       <c r="D3">
         <v>30002</v>
@@ -551,14 +597,23 @@
       <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="H3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>200</v>
+      </c>
+      <c r="K3">
+        <v>200</v>
+      </c>
+      <c r="L3" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>30002</v>
       </c>
@@ -580,14 +635,23 @@
       <c r="G4" t="s">
         <v>23</v>
       </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" t="s">
-        <v>11</v>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>200</v>
+      </c>
+      <c r="K4">
+        <v>200</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>30003</v>
       </c>
@@ -597,8 +661,8 @@
       <c r="C5">
         <v>30002</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
+      <c r="D5">
+        <v>0</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -609,11 +673,20 @@
       <c r="G5" t="s">
         <v>11</v>
       </c>
-      <c r="H5" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" t="s">
-        <v>11</v>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>200</v>
+      </c>
+      <c r="K5">
+        <v>200</v>
+      </c>
+      <c r="L5" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/RawData/Levels.xlsx
+++ b/Assets/Resources/Data/RawData/Levels.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59AFD584-A23D-41CB-A3C3-1BD95C033A11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134C6908-9EDB-4ED2-BB18-CE83CF598342}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t>关卡ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,6 +160,30 @@
   </si>
   <si>
     <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开局木头数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石头数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Money</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -485,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -497,9 +521,10 @@
     <col min="6" max="6" width="16" customWidth="1"/>
     <col min="7" max="7" width="15.875" customWidth="1"/>
     <col min="8" max="8" width="11.875" customWidth="1"/>
+    <col min="13" max="13" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -536,8 +561,17 @@
       <c r="L1" t="s">
         <v>32</v>
       </c>
+      <c r="M1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -574,8 +608,17 @@
       <c r="L2" t="s">
         <v>33</v>
       </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>30001</v>
       </c>
@@ -612,8 +655,17 @@
       <c r="L3" t="s">
         <v>34</v>
       </c>
+      <c r="M3">
+        <v>50</v>
+      </c>
+      <c r="N3">
+        <v>10</v>
+      </c>
+      <c r="O3">
+        <v>100</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>30002</v>
       </c>
@@ -650,8 +702,17 @@
       <c r="L4" t="s">
         <v>34</v>
       </c>
+      <c r="M4">
+        <v>50</v>
+      </c>
+      <c r="N4">
+        <v>10</v>
+      </c>
+      <c r="O4">
+        <v>100</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>30003</v>
       </c>
@@ -687,6 +748,15 @@
       </c>
       <c r="L5" t="s">
         <v>34</v>
+      </c>
+      <c r="M5">
+        <v>50</v>
+      </c>
+      <c r="N5">
+        <v>10</v>
+      </c>
+      <c r="O5">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/RawData/Levels.xlsx
+++ b/Assets/Resources/Data/RawData/Levels.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134C6908-9EDB-4ED2-BB18-CE83CF598342}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35341543-40B4-460F-B0C9-69A56855ABA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -167,23 +167,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Wood</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石头数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>金钱数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Money</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Food</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -512,7 +512,7 @@
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -565,10 +565,10 @@
         <v>35</v>
       </c>
       <c r="N1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
@@ -609,13 +609,13 @@
         <v>33</v>
       </c>
       <c r="M2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
@@ -656,13 +656,13 @@
         <v>34</v>
       </c>
       <c r="M3">
-        <v>50</v>
+        <v>999</v>
       </c>
       <c r="N3">
-        <v>10</v>
+        <v>999</v>
       </c>
       <c r="O3">
-        <v>100</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">

--- a/Assets/Resources/Data/RawData/Levels.xlsx
+++ b/Assets/Resources/Data/RawData/Levels.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35341543-40B4-460F-B0C9-69A56855ABA4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1035C84-4DCA-46B5-9B89-4C7B39D65595}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>关卡ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,6 +184,14 @@
   </si>
   <si>
     <t>Food</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石头数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -509,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -524,7 +532,7 @@
     <col min="13" max="13" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -570,8 +578,11 @@
       <c r="O1" t="s">
         <v>36</v>
       </c>
+      <c r="P1" t="s">
+        <v>41</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -617,8 +628,11 @@
       <c r="O2" t="s">
         <v>37</v>
       </c>
+      <c r="P2" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>30001</v>
       </c>
@@ -664,8 +678,11 @@
       <c r="O3">
         <v>9999</v>
       </c>
+      <c r="P3">
+        <v>999</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>30002</v>
       </c>
@@ -711,8 +728,11 @@
       <c r="O4">
         <v>100</v>
       </c>
+      <c r="P4">
+        <v>20</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>30003</v>
       </c>
@@ -757,6 +777,9 @@
       </c>
       <c r="O5">
         <v>100</v>
+      </c>
+      <c r="P5">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/RawData/Levels.xlsx
+++ b/Assets/Resources/Data/RawData/Levels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1035C84-4DCA-46B5-9B89-4C7B39D65595}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DF04FA-1C7F-45FF-A0D2-6837712BE70C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -520,7 +520,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -661,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L3" t="s">
         <v>34</v>
@@ -711,10 +711,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K4">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L4" t="s">
         <v>34</v>
@@ -761,10 +761,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="K5">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L5" t="s">
         <v>34</v>

--- a/Assets/Resources/Data/RawData/Levels.xlsx
+++ b/Assets/Resources/Data/RawData/Levels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6DF04FA-1C7F-45FF-A0D2-6837712BE70C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1D7B20-F34C-4F4C-BF4F-12EB1E1C2AAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
   <si>
     <t>关卡ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -192,6 +192,30 @@
   </si>
   <si>
     <t>Stone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可用订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单容量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderIds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderNums</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11002,12006</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,100</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -235,8 +259,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -517,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -530,9 +555,11 @@
     <col min="7" max="7" width="15.875" customWidth="1"/>
     <col min="8" max="8" width="11.875" customWidth="1"/>
     <col min="13" max="13" width="14.5" customWidth="1"/>
+    <col min="17" max="17" width="17.375" customWidth="1"/>
+    <col min="18" max="18" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -581,8 +608,14 @@
       <c r="P1" t="s">
         <v>41</v>
       </c>
+      <c r="Q1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" t="s">
+        <v>44</v>
+      </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -631,8 +664,14 @@
       <c r="P2" t="s">
         <v>42</v>
       </c>
+      <c r="Q2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>30001</v>
       </c>
@@ -681,8 +720,14 @@
       <c r="P3">
         <v>999</v>
       </c>
+      <c r="Q3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>30002</v>
       </c>
@@ -731,8 +776,14 @@
       <c r="P4">
         <v>20</v>
       </c>
+      <c r="Q4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>30003</v>
       </c>
@@ -780,6 +831,12 @@
       </c>
       <c r="P5">
         <v>20</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/RawData/Levels.xlsx
+++ b/Assets/Resources/Data/RawData/Levels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1D7B20-F34C-4F4C-BF4F-12EB1E1C2AAA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF84DC3-C8CF-4CD6-AD7D-8383DEF50126}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -545,7 +545,7 @@
   <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -765,16 +765,16 @@
         <v>34</v>
       </c>
       <c r="M4">
-        <v>50</v>
+        <v>999</v>
       </c>
       <c r="N4">
-        <v>10</v>
+        <v>999</v>
       </c>
       <c r="O4">
-        <v>100</v>
+        <v>9999</v>
       </c>
       <c r="P4">
-        <v>20</v>
+        <v>999</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>47</v>
@@ -821,16 +821,16 @@
         <v>34</v>
       </c>
       <c r="M5">
-        <v>50</v>
+        <v>999</v>
       </c>
       <c r="N5">
-        <v>10</v>
+        <v>999</v>
       </c>
       <c r="O5">
-        <v>100</v>
+        <v>9999</v>
       </c>
       <c r="P5">
-        <v>20</v>
+        <v>999</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>47</v>

--- a/Assets/Resources/Data/RawData/Levels.xlsx
+++ b/Assets/Resources/Data/RawData/Levels.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F79CEDAB-47ED-42BE-92C5-CDE7DD147E66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD994D83-0E89-4F48-9E5C-4292B0E8860A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
   <si>
     <t>关卡ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,18 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>农产品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工业产品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结合产业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>前置关卡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -71,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>关卡目标1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -95,26 +79,6 @@
     <t>Aim3</t>
   </si>
   <si>
-    <t>金钱大于20000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木材资源大于500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城镇人口达到200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金钱大于30000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工业资源大于300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>城镇人口达到300</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -236,6 +200,74 @@
   </si>
   <si>
     <t>临近海岸，适合发展商业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海岸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山川</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城镇人口达到400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城镇人口达到500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标金钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AimMoney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标幸福度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AimHappiness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标人口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AimPopulation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总幸福度达到80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总幸福度达到85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总幸福度达到90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金达到20000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金达到30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金达到40000</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -562,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -579,9 +611,11 @@
     <col min="17" max="17" width="17.375" customWidth="1"/>
     <col min="18" max="18" width="20.625" customWidth="1"/>
     <col min="19" max="19" width="30.125" customWidth="1"/>
+    <col min="21" max="21" width="14.375" customWidth="1"/>
+    <col min="22" max="22" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -589,58 +623,67 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" t="s">
-        <v>24</v>
-      </c>
       <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
+        <v>30</v>
+      </c>
+      <c r="O1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" t="s">
         <v>32</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
         <v>35</v>
       </c>
-      <c r="N1" t="s">
-        <v>39</v>
-      </c>
-      <c r="O1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R1" t="s">
-        <v>44</v>
-      </c>
       <c r="S1" t="s">
-        <v>49</v>
+        <v>40</v>
+      </c>
+      <c r="T1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V1" t="s">
+        <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -648,63 +691,72 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
-      </c>
       <c r="I2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" t="s">
         <v>31</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" t="s">
         <v>33</v>
       </c>
-      <c r="M2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" t="s">
+      <c r="Q2" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" t="s">
         <v>37</v>
       </c>
-      <c r="P2" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>45</v>
-      </c>
-      <c r="R2" t="s">
-        <v>46</v>
-      </c>
       <c r="S2" t="s">
-        <v>52</v>
+        <v>43</v>
+      </c>
+      <c r="T2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" t="s">
+        <v>53</v>
+      </c>
+      <c r="V2" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>30001</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -713,13 +765,13 @@
         <v>30002</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -734,36 +786,45 @@
         <v>300</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="N3">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="O3">
-        <v>9999</v>
+        <v>10000</v>
       </c>
       <c r="P3">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="S3" t="s">
-        <v>50</v>
+        <v>41</v>
+      </c>
+      <c r="T3">
+        <v>20000</v>
+      </c>
+      <c r="U3">
+        <v>80</v>
+      </c>
+      <c r="V3">
+        <v>300</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>30002</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="C4">
         <v>30001</v>
@@ -772,13 +833,13 @@
         <v>30003</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -793,36 +854,45 @@
         <v>300</v>
       </c>
       <c r="L4" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="N4">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="O4">
-        <v>9999</v>
+        <v>10000</v>
       </c>
       <c r="P4">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="S4" t="s">
-        <v>51</v>
+        <v>42</v>
+      </c>
+      <c r="T4">
+        <v>30000</v>
+      </c>
+      <c r="U4">
+        <v>85</v>
+      </c>
+      <c r="V4">
+        <v>400</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>30003</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="C5">
         <v>30002</v>
@@ -831,13 +901,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -852,28 +922,37 @@
         <v>300</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="M5">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="N5">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="O5">
-        <v>9999</v>
+        <v>10000</v>
       </c>
       <c r="P5">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="S5" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+      <c r="T5">
+        <v>40000</v>
+      </c>
+      <c r="U5">
+        <v>90</v>
+      </c>
+      <c r="V5">
+        <v>500</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/RawData/Levels.xlsx
+++ b/Assets/Resources/Data/RawData/Levels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD994D83-0E89-4F48-9E5C-4292B0E8860A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCEADA4-8008-4875-B761-E4994B1E0B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
   <si>
     <t>关卡ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,14 +175,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11002,12006</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>关卡特色</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,10 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>临近海岸，适合发展商业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>海岸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -268,6 +256,30 @@
   </si>
   <si>
     <t>资金达到40000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,200,200,200,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12009,12012,12015,12020,11016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临近海岸，适合发展制造业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11011,12004,12018,11017,11016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,300,300,300,300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11002,11003,12018,11019,11016</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -596,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -608,8 +620,8 @@
     <col min="8" max="8" width="11.875" customWidth="1"/>
     <col min="12" max="12" width="34" customWidth="1"/>
     <col min="13" max="13" width="14.5" customWidth="1"/>
-    <col min="17" max="17" width="17.375" customWidth="1"/>
-    <col min="18" max="18" width="20.625" customWidth="1"/>
+    <col min="17" max="17" width="34.375" customWidth="1"/>
+    <col min="18" max="18" width="32.25" customWidth="1"/>
     <col min="19" max="19" width="30.125" customWidth="1"/>
     <col min="21" max="21" width="14.375" customWidth="1"/>
     <col min="22" max="22" width="11.875" customWidth="1"/>
@@ -671,16 +683,16 @@
         <v>35</v>
       </c>
       <c r="S1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="T1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="U1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="V1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
@@ -739,16 +751,16 @@
         <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="U2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="V2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -756,7 +768,7 @@
         <v>30001</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -765,10 +777,10 @@
         <v>30002</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
         <v>14</v>
@@ -789,25 +801,25 @@
         <v>25</v>
       </c>
       <c r="M3">
+        <v>100</v>
+      </c>
+      <c r="N3">
+        <v>100</v>
+      </c>
+      <c r="O3">
         <v>1000</v>
       </c>
-      <c r="N3">
-        <v>1000</v>
-      </c>
-      <c r="O3">
-        <v>10000</v>
-      </c>
       <c r="P3">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="R3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S3" t="s">
         <v>39</v>
-      </c>
-      <c r="S3" t="s">
-        <v>41</v>
       </c>
       <c r="T3">
         <v>20000</v>
@@ -824,7 +836,7 @@
         <v>30002</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C4">
         <v>30001</v>
@@ -833,13 +845,13 @@
         <v>30003</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -857,25 +869,25 @@
         <v>25</v>
       </c>
       <c r="M4">
+        <v>100</v>
+      </c>
+      <c r="N4">
+        <v>100</v>
+      </c>
+      <c r="O4">
         <v>1000</v>
       </c>
-      <c r="N4">
-        <v>1000</v>
-      </c>
-      <c r="O4">
-        <v>10000</v>
-      </c>
       <c r="P4">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="S4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="T4">
         <v>30000</v>
@@ -892,7 +904,7 @@
         <v>30003</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>30002</v>
@@ -901,13 +913,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -925,25 +937,25 @@
         <v>25</v>
       </c>
       <c r="M5">
+        <v>100</v>
+      </c>
+      <c r="N5">
+        <v>100</v>
+      </c>
+      <c r="O5">
         <v>1000</v>
       </c>
-      <c r="N5">
-        <v>1000</v>
-      </c>
-      <c r="O5">
-        <v>10000</v>
-      </c>
       <c r="P5">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="S5" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="T5">
         <v>40000</v>

--- a/Assets/Resources/Data/RawData/Levels.xlsx
+++ b/Assets/Resources/Data/RawData/Levels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCEADA4-8008-4875-B761-E4994B1E0B5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5611EFFE-13C0-4CC5-B19B-BC26CD290841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -279,7 +279,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11002,11003,12018,11019,11016</t>
+    <t>11002,12003,12018,12015,11016</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -608,8 +608,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Assets/Resources/Data/RawData/Levels.xlsx
+++ b/Assets/Resources/Data/RawData/Levels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5611EFFE-13C0-4CC5-B19B-BC26CD290841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA44D86-8748-4566-9C0D-99230041CDF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10680" yWindow="4275" windowWidth="21735" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,10 +79,6 @@
     <t>Aim3</t>
   </si>
   <si>
-    <t>城镇人口达到300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>建筑奖励</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -179,14 +175,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>平原地形，适合发展农业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>矿产丰富，适合发展工业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SpcielIntroduce</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,88 +187,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>目标金钱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AimMoney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标幸福度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AimHappiness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标人口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AimPopulation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,200,200,200,200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12009,12012,12015,12020,11016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11011,12004,12018,11017,11016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,300,300,300,300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11002,12003,12018,12015,11016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30002Aim1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30003Aim1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30001SpcielIntroduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30002SpcielIntroduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30003SpcielIntroduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30002Aim2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30002Aim3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30003Aim2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30003Aim3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30001Aim1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30001Aim2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30001Aim3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>平原</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城镇人口达到400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>城镇人口达到500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标金钱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AimMoney</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标幸福度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AimHappiness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目标人口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AimPopulation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总幸福度达到80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总幸福度达到85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>总幸福度达到90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资金达到20000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资金达到30000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>资金达到40000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>200,200,200,200,200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12009,12012,12015,12020,11016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>临近海岸，适合发展制造业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11011,12004,12018,11017,11016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>300,300,300,300,300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11002,12003,12018,12015,11016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -608,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -650,49 +649,49 @@
         <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" t="s">
-        <v>20</v>
-      </c>
       <c r="L1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" t="s">
         <v>26</v>
       </c>
-      <c r="N1" t="s">
-        <v>30</v>
-      </c>
-      <c r="O1" t="s">
-        <v>27</v>
-      </c>
       <c r="P1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" t="s">
         <v>34</v>
       </c>
-      <c r="R1" t="s">
-        <v>35</v>
-      </c>
       <c r="S1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="U1" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="V1" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.2">
@@ -718,49 +717,49 @@
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" t="s">
-        <v>22</v>
-      </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
         <v>36</v>
       </c>
-      <c r="R2" t="s">
-        <v>37</v>
-      </c>
       <c r="S2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="U2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="V2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -768,7 +767,7 @@
         <v>30001</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -777,13 +776,13 @@
         <v>30002</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -798,7 +797,7 @@
         <v>300</v>
       </c>
       <c r="L3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M3">
         <v>100</v>
@@ -813,13 +812,13 @@
         <v>20</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="S3" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="T3">
         <v>20000</v>
@@ -836,7 +835,7 @@
         <v>30002</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <v>30001</v>
@@ -845,13 +844,13 @@
         <v>30003</v>
       </c>
       <c r="E4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" t="s">
         <v>57</v>
       </c>
-      <c r="F4" t="s">
-        <v>54</v>
-      </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -866,7 +865,7 @@
         <v>300</v>
       </c>
       <c r="L4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M4">
         <v>100</v>
@@ -881,13 +880,13 @@
         <v>20</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="S4" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="T4">
         <v>30000</v>
@@ -904,7 +903,7 @@
         <v>30003</v>
       </c>
       <c r="B5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C5">
         <v>30002</v>
@@ -913,13 +912,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -934,7 +933,7 @@
         <v>300</v>
       </c>
       <c r="L5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M5">
         <v>100</v>
@@ -949,13 +948,13 @@
         <v>20</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="S5" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="T5">
         <v>40000</v>

--- a/Assets/Resources/Data/RawData/Levels.xlsx
+++ b/Assets/Resources/Data/RawData/Levels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA44D86-8748-4566-9C0D-99230041CDF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D364D874-0DF2-445E-8025-14814A811DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10680" yWindow="4275" windowWidth="21735" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -227,10 +227,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11002,12003,12018,12015,11016</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>30002Aim1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -280,6 +276,10 @@
   </si>
   <si>
     <t>平原</t>
+  </si>
+  <si>
+    <t>11002,12003,12018,11019,11016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R9" sqref="R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -767,7 +767,7 @@
         <v>30001</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -776,13 +776,13 @@
         <v>30002</v>
       </c>
       <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F3" t="s">
         <v>61</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>62</v>
-      </c>
-      <c r="G3" t="s">
-        <v>63</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -812,13 +812,13 @@
         <v>20</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="R3" s="1" t="s">
         <v>47</v>
       </c>
       <c r="S3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T3">
         <v>20000</v>
@@ -844,13 +844,13 @@
         <v>30003</v>
       </c>
       <c r="E4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" t="s">
         <v>57</v>
-      </c>
-      <c r="G4" t="s">
-        <v>58</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -886,7 +886,7 @@
         <v>47</v>
       </c>
       <c r="S4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T4">
         <v>30000</v>
@@ -912,13 +912,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" t="s">
         <v>59</v>
-      </c>
-      <c r="G5" t="s">
-        <v>60</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -954,7 +954,7 @@
         <v>50</v>
       </c>
       <c r="S5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="T5">
         <v>40000</v>
